--- a/data/trans_orig/P23_1_R_2016_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_R_2016_2023-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>131861</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112754</v>
+        <v>112038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150345</v>
+        <v>153300</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3143559393188294</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2688064000196304</v>
+        <v>0.2670997939725274</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3584221335128063</v>
+        <v>0.3654676258851122</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -763,19 +763,19 @@
         <v>93231</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76764</v>
+        <v>77886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>109907</v>
+        <v>109277</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2355771720680891</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1939681349407558</v>
+        <v>0.1968043192364527</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2777137351066706</v>
+        <v>0.2761230126985298</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>218</v>
@@ -784,19 +784,19 @@
         <v>225092</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>199206</v>
+        <v>196872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>250191</v>
+        <v>250497</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2761120693229008</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2443593484481783</v>
+        <v>0.2414965727801228</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3069001402560311</v>
+        <v>0.3072765646611533</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>287602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269118</v>
+        <v>266163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>306709</v>
+        <v>307425</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6856440606811706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6415778664871938</v>
+        <v>0.6345323741148878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7311935999803696</v>
+        <v>0.7329002060274726</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>309</v>
@@ -834,19 +834,19 @@
         <v>302524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285848</v>
+        <v>286478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>318991</v>
+        <v>317869</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7644228279319109</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7222862648933295</v>
+        <v>0.7238769873014704</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8060318650592445</v>
+        <v>0.8031956807635473</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>579</v>
@@ -855,19 +855,19 @@
         <v>590126</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>565027</v>
+        <v>564721</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>616012</v>
+        <v>618346</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7238879306770992</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6930998597439689</v>
+        <v>0.6927234353388464</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7556406515518217</v>
+        <v>0.7585034272198768</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>236650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>214197</v>
+        <v>212058</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>264071</v>
+        <v>259265</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4007651674897747</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3627403520382247</v>
+        <v>0.3591175991930811</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4472012246968449</v>
+        <v>0.4390624047097618</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>194</v>
@@ -980,19 +980,19 @@
         <v>188892</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>167092</v>
+        <v>168665</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>210179</v>
+        <v>211389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3351865570029621</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2965021737187268</v>
+        <v>0.2992931593783545</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.372960140829476</v>
+        <v>0.3751057505401878</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>418</v>
@@ -1001,19 +1001,19 @@
         <v>425543</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>392901</v>
+        <v>391581</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>460868</v>
+        <v>455917</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3687416557707919</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3404572903671146</v>
+        <v>0.3393134597089499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3993515268224282</v>
+        <v>0.3950613329825622</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>353846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>326425</v>
+        <v>331231</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376299</v>
+        <v>378438</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5992348325102254</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5527987753031551</v>
+        <v>0.5609375952902382</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6372596479617753</v>
+        <v>0.6408824008069189</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>385</v>
@@ -1051,19 +1051,19 @@
         <v>374652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>353365</v>
+        <v>352155</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>396452</v>
+        <v>394879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6648134429970379</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.627039859170524</v>
+        <v>0.6248942494598121</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7034978262812731</v>
+        <v>0.7007068406216455</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>728</v>
@@ -1072,19 +1072,19 @@
         <v>728497</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>693172</v>
+        <v>698123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>761139</v>
+        <v>762459</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6312583442292081</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6006484731775718</v>
+        <v>0.6049386670174377</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6595427096328854</v>
+        <v>0.66068654029105</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>245683</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>220975</v>
+        <v>219569</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>271693</v>
+        <v>271327</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3677744112782165</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3307886930583783</v>
+        <v>0.3286843324577972</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4067108993698949</v>
+        <v>0.4061636003818945</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>213</v>
@@ -1197,19 +1197,19 @@
         <v>209362</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>185361</v>
+        <v>188904</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>234126</v>
+        <v>234502</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3169950836582551</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2806544775916919</v>
+        <v>0.2860193776036448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3544892875422539</v>
+        <v>0.3550588932717799</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>447</v>
@@ -1218,19 +1218,19 @@
         <v>455044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>419599</v>
+        <v>418865</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>490754</v>
+        <v>486435</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3425293498730927</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3158480773511175</v>
+        <v>0.3152959230204459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3694090359846781</v>
+        <v>0.3661582481593298</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>422342</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>396332</v>
+        <v>396698</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>447050</v>
+        <v>448456</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6322255887217836</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5932891006301053</v>
+        <v>0.5938363996181055</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6692113069416219</v>
+        <v>0.6713156675422027</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>451</v>
@@ -1268,19 +1268,19 @@
         <v>451097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>426333</v>
+        <v>425957</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>475098</v>
+        <v>471555</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6830049163417449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6455107124577462</v>
+        <v>0.6449411067282202</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7193455224083081</v>
+        <v>0.7139806223963552</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>854</v>
@@ -1289,19 +1289,19 @@
         <v>873439</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>837729</v>
+        <v>842048</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>908884</v>
+        <v>909618</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6574706501269073</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6305909640153219</v>
+        <v>0.6338417518406704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6841519226488825</v>
+        <v>0.6847040769795543</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>269089</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>243062</v>
+        <v>243078</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>297798</v>
+        <v>296010</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.416515517817187</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3762295451309896</v>
+        <v>0.3762530236176652</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4609534971610893</v>
+        <v>0.4581854228292328</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>199</v>
@@ -1414,19 +1414,19 @@
         <v>216396</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>193107</v>
+        <v>192439</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>242027</v>
+        <v>241522</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3344808443974809</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2984832622118792</v>
+        <v>0.2974511611029121</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3740986441132422</v>
+        <v>0.3733169862164412</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>438</v>
@@ -1435,19 +1435,19 @@
         <v>485485</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>450577</v>
+        <v>448708</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>525301</v>
+        <v>521053</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3754692410004841</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3484719370617684</v>
+        <v>0.3470258521537082</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4062622296027031</v>
+        <v>0.4029771461028677</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>376959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>348250</v>
+        <v>350038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>402986</v>
+        <v>402970</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.583484482182813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5390465028389106</v>
+        <v>0.5418145771707672</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6237704548690102</v>
+        <v>0.6237469763823349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>401</v>
@@ -1485,19 +1485,19 @@
         <v>430565</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>404934</v>
+        <v>405439</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>453854</v>
+        <v>454522</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6655191556025191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6259013558867577</v>
+        <v>0.6266830137835588</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7015167377881208</v>
+        <v>0.7025488388970879</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>744</v>
@@ -1506,19 +1506,19 @@
         <v>807524</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>767708</v>
+        <v>771956</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>842432</v>
+        <v>844301</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6245307589995158</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5937377703972968</v>
+        <v>0.5970228538971323</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6515280629382316</v>
+        <v>0.6529741478462917</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>137487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>119085</v>
+        <v>116835</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158462</v>
+        <v>160184</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2876785241432268</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.249174804292275</v>
+        <v>0.2444664625980504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3315670917303674</v>
+        <v>0.3351713335659697</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>92</v>
@@ -1631,19 +1631,19 @@
         <v>107409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89204</v>
+        <v>89055</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>129252</v>
+        <v>129628</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.216663066057092</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1799421031899369</v>
+        <v>0.1796402638926685</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2607248319608542</v>
+        <v>0.2614837771111235</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>214</v>
@@ -1652,19 +1652,19 @@
         <v>244895</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>217346</v>
+        <v>216442</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>273670</v>
+        <v>275045</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2515208572635418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2232265461000185</v>
+        <v>0.2222973291333173</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2810744417425015</v>
+        <v>0.2824862197294259</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>340431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>319456</v>
+        <v>317734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>358833</v>
+        <v>361083</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7123214758567732</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6684329082696325</v>
+        <v>0.6648286664340297</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7508251957077251</v>
+        <v>0.7555335374019495</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>340</v>
@@ -1702,19 +1702,19 @@
         <v>388331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>366488</v>
+        <v>366112</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>406536</v>
+        <v>406685</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.783336933942908</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7392751680391461</v>
+        <v>0.7385162228888765</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8200578968100632</v>
+        <v>0.8203597361073315</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>642</v>
@@ -1723,19 +1723,19 @@
         <v>728763</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>699988</v>
+        <v>698613</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>756312</v>
+        <v>757216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7484791427364582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7189255582574985</v>
+        <v>0.7175137802705746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7767734538999814</v>
+        <v>0.777702670866683</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>50668</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37982</v>
+        <v>38052</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64430</v>
+        <v>64805</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1515517080824423</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1136067118518692</v>
+        <v>0.1138156639250679</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1927136000488271</v>
+        <v>0.1938366395407523</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -1848,19 +1848,19 @@
         <v>26983</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17601</v>
+        <v>18551</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38410</v>
+        <v>38505</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0714276011175609</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04659338992739523</v>
+        <v>0.04910802001445229</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.101678091718706</v>
+        <v>0.1019284190428604</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>72</v>
@@ -1869,19 +1869,19 @@
         <v>77651</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62116</v>
+        <v>62709</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98206</v>
+        <v>98672</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1090461848723549</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08723031248366381</v>
+        <v>0.08806346600468369</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1379122671843026</v>
+        <v>0.1385658736570177</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>283662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>269900</v>
+        <v>269525</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>296348</v>
+        <v>296278</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8484482919175577</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8072863999511728</v>
+        <v>0.8061633604592476</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8863932881481308</v>
+        <v>0.8861843360749321</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>330</v>
@@ -1919,19 +1919,19 @@
         <v>350779</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>339352</v>
+        <v>339257</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>360161</v>
+        <v>359211</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9285723988824391</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8983219082812939</v>
+        <v>0.8980715809571395</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9534066100726047</v>
+        <v>0.9508919799855476</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>607</v>
@@ -1940,19 +1940,19 @@
         <v>634441</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>613886</v>
+        <v>613420</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>649976</v>
+        <v>649383</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8909538151276452</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8620877328156978</v>
+        <v>0.8614341263429821</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9127696875163366</v>
+        <v>0.9119365339953163</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>18955</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12824</v>
+        <v>12927</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28568</v>
+        <v>28015</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07400282683655623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0500676665412107</v>
+        <v>0.05046895650215089</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.111535601215144</v>
+        <v>0.1093751694205584</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2065,19 +2065,19 @@
         <v>5303</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13077</v>
+        <v>13483</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01329359748656769</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003417805033533955</v>
+        <v>0.003414055533272727</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03278395737115235</v>
+        <v>0.03380248300396189</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2086,19 +2086,19 @@
         <v>24257</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16835</v>
+        <v>16038</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34448</v>
+        <v>34076</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03703292041547975</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02570168167803074</v>
+        <v>0.02448429538959037</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05259044042071446</v>
+        <v>0.05202267149395012</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>237178</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227565</v>
+        <v>228118</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>243309</v>
+        <v>243206</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9259971731634438</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8884643987848561</v>
+        <v>0.8906248305794416</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9499323334587895</v>
+        <v>0.9495310434978498</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>296</v>
@@ -2136,19 +2136,19 @@
         <v>393581</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>385807</v>
+        <v>385401</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>397521</v>
+        <v>397522</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9867064025134323</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9672160426288479</v>
+        <v>0.9661975169960382</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9965821949664661</v>
+        <v>0.9965859444667273</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>574</v>
@@ -2157,19 +2157,19 @@
         <v>630760</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>620569</v>
+        <v>620941</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>638182</v>
+        <v>638979</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9629670795845202</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9474095595792853</v>
+        <v>0.9479773285060498</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9742983183219692</v>
+        <v>0.9755157046104096</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>1090392</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1032901</v>
+        <v>1034006</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1147265</v>
+        <v>1146673</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3214207709242772</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3044736486004316</v>
+        <v>0.3047993307146093</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3381855192489536</v>
+        <v>0.3380109153811833</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>821</v>
@@ -2282,19 +2282,19 @@
         <v>847575</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>795408</v>
+        <v>793285</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>902260</v>
+        <v>901754</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2394886124978119</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.224748469136502</v>
+        <v>0.2241485366542341</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2549403789690229</v>
+        <v>0.2547974147981649</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1834</v>
@@ -2303,19 +2303,19 @@
         <v>1937967</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1854040</v>
+        <v>1866061</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2011178</v>
+        <v>2025133</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2795877382340072</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2674796161425477</v>
+        <v>0.2692139544330885</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2901497687024669</v>
+        <v>0.2921630909554056</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>2302022</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2245149</v>
+        <v>2245741</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2359513</v>
+        <v>2358408</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6785792290757228</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6618144807510465</v>
+        <v>0.6619890846188168</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6955263513995684</v>
+        <v>0.6952006692853907</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2512</v>
@@ -2353,19 +2353,19 @@
         <v>2691528</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2636843</v>
+        <v>2637349</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2743695</v>
+        <v>2745818</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7605113875021881</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7450596210309774</v>
+        <v>0.745202585201835</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7752515308634981</v>
+        <v>0.7758514633457659</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4728</v>
@@ -2374,19 +2374,19 @@
         <v>4993550</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4920339</v>
+        <v>4906384</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5077477</v>
+        <v>5065456</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7204122617659928</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.709850231297533</v>
+        <v>0.7078369090445944</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7325203838574524</v>
+        <v>0.7307860455669115</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>72434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49324</v>
+        <v>47495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99198</v>
+        <v>100141</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.177623759354846</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1209529851726805</v>
+        <v>0.1164676309802327</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2432560009828492</v>
+        <v>0.2455687468935115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2742,19 +2742,19 @@
         <v>60458</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43270</v>
+        <v>42946</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81337</v>
+        <v>83426</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1679168349700637</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1201796579354039</v>
+        <v>0.1192789386164024</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2259049307676607</v>
+        <v>0.2317091959352992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -2763,19 +2763,19 @@
         <v>132892</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104326</v>
+        <v>101316</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>165447</v>
+        <v>163835</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1730720881319119</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1358685895090262</v>
+        <v>0.1319491839245083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2154699733273085</v>
+        <v>0.2133709358080465</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>335359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308595</v>
+        <v>307652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>358469</v>
+        <v>360298</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.822376240645154</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7567439990171505</v>
+        <v>0.7544312531064888</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8790470148273195</v>
+        <v>0.8835323690197674</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -2813,19 +2813,19 @@
         <v>299590</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>278711</v>
+        <v>276622</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>316778</v>
+        <v>317102</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8320831650299363</v>
+        <v>0.8320831650299364</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7740950692323391</v>
+        <v>0.7682908040647007</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8798203420645958</v>
+        <v>0.8807210613835976</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>315</v>
@@ -2834,19 +2834,19 @@
         <v>634950</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>602395</v>
+        <v>604007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>663516</v>
+        <v>666526</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.826927911868088</v>
+        <v>0.8269279118680881</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7845300266726914</v>
+        <v>0.7866290641919543</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8641314104909735</v>
+        <v>0.8680508160754916</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>137867</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>115121</v>
+        <v>115248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>165544</v>
+        <v>165428</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2890964923337822</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2414004525403904</v>
+        <v>0.2416664830320759</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3471326676646408</v>
+        <v>0.3468882030067116</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -2959,19 +2959,19 @@
         <v>108856</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>90176</v>
+        <v>90026</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128845</v>
+        <v>130286</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2172420251719356</v>
+        <v>0.2172420251719357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1799619238823788</v>
+        <v>0.1796623195637015</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.257133051254713</v>
+        <v>0.2600083780051161</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>192</v>
@@ -2980,19 +2980,19 @@
         <v>246724</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>217517</v>
+        <v>215292</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>280985</v>
+        <v>283596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2522805011328654</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2224159040951615</v>
+        <v>0.2201411428581367</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2873132088965228</v>
+        <v>0.289983577552693</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>339023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>311346</v>
+        <v>311462</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>361769</v>
+        <v>361642</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7109035076662178</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6528673323353592</v>
+        <v>0.6531117969932883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7585995474596098</v>
+        <v>0.7583335169679244</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>359</v>
@@ -3030,19 +3030,19 @@
         <v>392227</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>372238</v>
+        <v>370797</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>410907</v>
+        <v>411057</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7827579748280643</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7428669487452869</v>
+        <v>0.7399916219948838</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8200380761176209</v>
+        <v>0.8203376804362983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>570</v>
@@ -3051,19 +3051,19 @@
         <v>731249</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>696988</v>
+        <v>694377</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>760456</v>
+        <v>762681</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7477194988671345</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7126867911034769</v>
+        <v>0.7100164224473071</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7775840959048383</v>
+        <v>0.7798588571418633</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>155226</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132246</v>
+        <v>133686</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>178662</v>
+        <v>180330</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2505018580921929</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2134180792562217</v>
+        <v>0.2157416131756328</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2883226264742732</v>
+        <v>0.2910144226027015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>181</v>
@@ -3176,19 +3176,19 @@
         <v>134973</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>116888</v>
+        <v>118075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>152876</v>
+        <v>153730</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2169497005673205</v>
+        <v>0.2169497005673204</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1878804612638666</v>
+        <v>0.1897889285986301</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2457261687356859</v>
+        <v>0.2470989850626665</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>320</v>
@@ -3197,19 +3197,19 @@
         <v>290199</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>265728</v>
+        <v>261824</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>321531</v>
+        <v>317867</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2336922711596648</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2139862898309071</v>
+        <v>0.2108427409098599</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2589237466395192</v>
+        <v>0.2559729154901876</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>464433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>440997</v>
+        <v>439329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>487413</v>
+        <v>485973</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7494981419078072</v>
+        <v>0.7494981419078071</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.711677373525727</v>
+        <v>0.7089855773972986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7865819207437783</v>
+        <v>0.7842583868243672</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>665</v>
@@ -3247,19 +3247,19 @@
         <v>487166</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>469263</v>
+        <v>468409</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>505251</v>
+        <v>504064</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7830502994326796</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7542738312643139</v>
+        <v>0.7529010149373334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8121195387361335</v>
+        <v>0.8102110714013698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1071</v>
@@ -3268,19 +3268,19 @@
         <v>951599</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>920267</v>
+        <v>923931</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>976070</v>
+        <v>979974</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7663077288403353</v>
+        <v>0.7663077288403354</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7410762533604809</v>
+        <v>0.7440270845098123</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7860137101690927</v>
+        <v>0.78915725909014</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>185478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161726</v>
+        <v>161298</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>208235</v>
+        <v>210933</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2651673989840649</v>
+        <v>0.2651673989840648</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2312105938863039</v>
+        <v>0.23059902862252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2977013882504642</v>
+        <v>0.3015585456763234</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>242</v>
@@ -3393,19 +3393,19 @@
         <v>152802</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137399</v>
+        <v>136048</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>171819</v>
+        <v>172276</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2077583091840111</v>
+        <v>0.2077583091840112</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1868161728328566</v>
+        <v>0.1849784226118657</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2336149664972653</v>
+        <v>0.2342367807127951</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>417</v>
@@ -3414,19 +3414,19 @@
         <v>338280</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>306662</v>
+        <v>308358</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>366592</v>
+        <v>368726</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2357426618719325</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2137088519445145</v>
+        <v>0.2148903739533071</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2554726793365912</v>
+        <v>0.2569599020396918</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>513998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>491241</v>
+        <v>488543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>537750</v>
+        <v>538178</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7348326010159352</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7022986117495358</v>
+        <v>0.6984414543236765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7687894061136961</v>
+        <v>0.7694009713774799</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>897</v>
@@ -3464,19 +3464,19 @@
         <v>582676</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>563659</v>
+        <v>563202</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>598079</v>
+        <v>599430</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7922416908159888</v>
+        <v>0.7922416908159889</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.766385033502735</v>
+        <v>0.7657632192872049</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8131838271671434</v>
+        <v>0.8150215773881343</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1386</v>
@@ -3485,19 +3485,19 @@
         <v>1096674</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1068362</v>
+        <v>1066228</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1128292</v>
+        <v>1126596</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7642573381280674</v>
+        <v>0.7642573381280675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7445273206634088</v>
+        <v>0.7430400979603086</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7862911480554855</v>
+        <v>0.785109626046693</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>178180</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>157698</v>
+        <v>156882</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>202042</v>
+        <v>200757</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2929315482704108</v>
+        <v>0.2929315482704107</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2592586323233843</v>
+        <v>0.2579171254004124</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3321616275331828</v>
+        <v>0.3300479057528911</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>198</v>
@@ -3610,19 +3610,19 @@
         <v>120753</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>105513</v>
+        <v>105651</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>137117</v>
+        <v>137321</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1983273250876242</v>
+        <v>0.1983273250876243</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1732967579598077</v>
+        <v>0.1735239221881117</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2252042395455624</v>
+        <v>0.2255403765591703</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>390</v>
@@ -3631,19 +3631,19 @@
         <v>298933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>269080</v>
+        <v>274107</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>324515</v>
+        <v>327932</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2456064770310142</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2210796265095548</v>
+        <v>0.2252097677172735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2666249273759715</v>
+        <v>0.2694331415143905</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>430085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>406223</v>
+        <v>407508</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>450567</v>
+        <v>451383</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7070684517295893</v>
+        <v>0.7070684517295891</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6678383724668171</v>
+        <v>0.669952094247109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7407413676766157</v>
+        <v>0.7420828745995877</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>804</v>
@@ -3681,19 +3681,19 @@
         <v>488102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>471738</v>
+        <v>471534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>503342</v>
+        <v>503204</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8016726749123756</v>
+        <v>0.8016726749123758</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7747957604544374</v>
+        <v>0.7744596234408299</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8267032420401923</v>
+        <v>0.8264760778118885</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1274</v>
@@ -3702,19 +3702,19 @@
         <v>918187</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>892605</v>
+        <v>889188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>948040</v>
+        <v>943013</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7543935229689857</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7333750726240285</v>
+        <v>0.7305668584856099</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7789203734904453</v>
+        <v>0.7747902322827265</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>73292</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60605</v>
+        <v>61738</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86442</v>
+        <v>87144</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1800444617345318</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.148876372133807</v>
+        <v>0.1516617947207778</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.212345837646138</v>
+        <v>0.2140710546172825</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -3827,19 +3827,19 @@
         <v>47296</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37904</v>
+        <v>39060</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57182</v>
+        <v>57460</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1076948570853411</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08630954782019147</v>
+        <v>0.08894139219216575</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1302059314756362</v>
+        <v>0.1308396199557959</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>185</v>
@@ -3848,19 +3848,19 @@
         <v>120588</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>104093</v>
+        <v>104985</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>137297</v>
+        <v>137957</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1424980471351435</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1230052071383196</v>
+        <v>0.1240593474041004</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.162241915367216</v>
+        <v>0.1630220825558475</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>333788</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>320638</v>
+        <v>319936</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>346475</v>
+        <v>345342</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8199555382654682</v>
+        <v>0.8199555382654683</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7876541623538621</v>
+        <v>0.7859289453827174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.851123627866193</v>
+        <v>0.8483382052792222</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>743</v>
@@ -3898,19 +3898,19 @@
         <v>391870</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>381984</v>
+        <v>381706</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>401262</v>
+        <v>400106</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.892305142914659</v>
+        <v>0.8923051429146589</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8697940685243641</v>
+        <v>0.869160380044204</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9136904521798086</v>
+        <v>0.9110586078078342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1212</v>
@@ -3919,19 +3919,19 @@
         <v>725658</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>708949</v>
+        <v>708289</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>742153</v>
+        <v>741261</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8575019528648564</v>
+        <v>0.8575019528648565</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8377580846327831</v>
+        <v>0.8369779174441525</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8769947928616803</v>
+        <v>0.8759406525958996</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>19582</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13716</v>
+        <v>13100</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28161</v>
+        <v>27535</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0631288296952535</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04421560037854648</v>
+        <v>0.04223119553856459</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09078261084806832</v>
+        <v>0.08876664992433921</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4047,16 +4047,16 @@
         <v>2426</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9500</v>
+        <v>9539</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01149996928848205</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005222609580135101</v>
+        <v>0.005221710333949615</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02044784114857794</v>
+        <v>0.02053227723689901</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -4065,19 +4065,19 @@
         <v>24925</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17258</v>
+        <v>17543</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33704</v>
+        <v>33744</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03216986649666494</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02227419633847699</v>
+        <v>0.02264125477899335</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04350018880459378</v>
+        <v>0.04355115894400235</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>290616</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>282037</v>
+        <v>282663</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>296482</v>
+        <v>297098</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9368711703047462</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9092173891519317</v>
+        <v>0.9112333500756611</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9557843996214538</v>
+        <v>0.9577688044614356</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>872</v>
@@ -4115,19 +4115,19 @@
         <v>459266</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>455109</v>
+        <v>455070</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>462183</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9885000307115179</v>
+        <v>0.9885000307115178</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9795521588514222</v>
+        <v>0.9794677227631011</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.994777390419865</v>
+        <v>0.9947782896660504</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1301</v>
@@ -4136,19 +4136,19 @@
         <v>749882</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>741103</v>
+        <v>741063</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>757549</v>
+        <v>757264</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9678301335033352</v>
+        <v>0.9678301335033349</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9564998111954062</v>
+        <v>0.9564488410559978</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.977725803661523</v>
+        <v>0.9773587452210066</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>822060</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>768167</v>
+        <v>768505</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>878540</v>
+        <v>875947</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.232920286400674</v>
+        <v>0.2329202864006739</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2176505075399477</v>
+        <v>0.2177460946047874</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2489232168708154</v>
+        <v>0.2481886344062854</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>849</v>
@@ -4261,19 +4261,19 @@
         <v>630481</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>589467</v>
+        <v>591246</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>670865</v>
+        <v>678133</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1689671944668214</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.157975652036824</v>
+        <v>0.1584522440002269</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1797901128163412</v>
+        <v>0.1817378517229384</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1605</v>
@@ -4282,19 +4282,19 @@
         <v>1452540</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1383567</v>
+        <v>1387153</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1524182</v>
+        <v>1528361</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2000540422870054</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1905545921188131</v>
+        <v>0.1910484833846902</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2099210109401287</v>
+        <v>0.2104965900497094</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>2707301</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2650821</v>
+        <v>2653414</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2761194</v>
+        <v>2760856</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7670797135993259</v>
+        <v>0.7670797135993261</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7510767831291845</v>
+        <v>0.7518113655937145</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7823494924600524</v>
+        <v>0.7822539053952124</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4512</v>
@@ -4332,19 +4332,19 @@
         <v>3100899</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3060515</v>
+        <v>3053247</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3141913</v>
+        <v>3140134</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8310328055331786</v>
+        <v>0.8310328055331785</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8202098871836587</v>
+        <v>0.8182621482770616</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.842024347963176</v>
+        <v>0.8415477559997731</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7129</v>
@@ -4353,19 +4353,19 @@
         <v>5808200</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5736558</v>
+        <v>5732379</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5877173</v>
+        <v>5873587</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7999459577129947</v>
+        <v>0.7999459577129948</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7900789890598716</v>
+        <v>0.7895034099502906</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8094454078811869</v>
+        <v>0.8089515166153096</v>
       </c>
     </row>
     <row r="27">
